--- a/medicine/Psychotrope/Patrimonio_(AOC)/Patrimonio_(AOC).xlsx
+++ b/medicine/Psychotrope/Patrimonio_(AOC)/Patrimonio_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le patrimonio[4] est un vin d'appellation d'origine contrôlée produit autour du golfe de Saint-Florent, dans le département de la Haute-Corse. 
+Le patrimonio est un vin d'appellation d'origine contrôlée produit autour du golfe de Saint-Florent, dans le département de la Haute-Corse. 
 </t>
         </is>
       </c>
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-Moyen Âge
-Période moderne
-Période contemporaine
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Vignoble de l'AOC Patrimonio en automne
 			Vignoble de l'AOC Patrimonio près de Saint-Florent
 Le patrimonio a été classé en AOC le 13 mars 1968.
@@ -550,6 +565,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -577,12 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orographie
-Le Nebbio, qui enchevêtre collines et petites vallées, bénéficie de terroirs parfaitement exposés. 
-Géologie
-La variété géologique (schiste argileux sur sous-sol calcaire) permet à la vigne de s’exprimer pleinement.
-Climatologie
-C'est un terroir bien protégé des vents par les montagnes avoisinantes. La partie septentrionale est situé dans un endroit abrité des vents forts du nord-est. En période de pluie, le vent sèche les baies et assure ainsi une récolte saine. Dans la période de sécheresse estivale, l'air humide maritime pallie la pénurie d'eau. Pendant la nuit, au sud de l'appellation, l'air frais, jusqu'à 1 000 mètres d'altitude, procure au vignoble un climat équilibré avec une période de croissance légèrement décalée.
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Nebbio, qui enchevêtre collines et petites vallées, bénéficie de terroirs parfaitement exposés. 
 </t>
         </is>
       </c>
@@ -608,21 +626,168 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété géologique (schiste argileux sur sous-sol calcaire) permet à la vigne de s’exprimer pleinement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Patrimonio_(AOC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrimonio_(AOC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un terroir bien protégé des vents par les montagnes avoisinantes. La partie septentrionale est situé dans un endroit abrité des vents forts du nord-est. En période de pluie, le vent sèche les baies et assure ainsi une récolte saine. Dans la période de sécheresse estivale, l'air humide maritime pallie la pénurie d'eau. Pendant la nuit, au sud de l'appellation, l'air frais, jusqu'à 1 000 mètres d'altitude, procure au vignoble un climat équilibré avec une période de croissance légèrement décalée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Patrimonio_(AOC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrimonio_(AOC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Présentation
-Le vignoble s'étend sur 7 communes : Patrimonio, Barbaggio, Saint-Florent, Farinole, Oletta, Poggio d'Oletta et Santo-Pietro-di-Tenda.
-Encépagement
-Les vins blancs sont issus du vermentino B (malvoisie de Corse).
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur 7 communes : Patrimonio, Barbaggio, Saint-Florent, Farinole, Oletta, Poggio d'Oletta et Santo-Pietro-di-Tenda.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Patrimonio_(AOC)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrimonio_(AOC)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins blancs sont issus du vermentino B (malvoisie de Corse).
 Les vins rouges et rosés sont issus principalement du nielluccio N, accompagné accessoirement du grenache N, du sciaccarello N et du vermentino B (malvoisie de Corse).
-Méthodes culturales et réglementations
-Le savoir-faire séculaire des vignerons assure une production de vins de très haute qualité : blancs bouquetés, rosés de soleil et de fruits, rouges amples et charpentés.
-Structure des exploitations
-Terroir et vins
-Commercialisation</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Patrimonio_(AOC)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrimonio_(AOC)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Méthodes culturales et réglementations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le savoir-faire séculaire des vignerons assure une production de vins de très haute qualité : blancs bouquetés, rosés de soleil et de fruits, rouges amples et charpentés.
+</t>
         </is>
       </c>
     </row>
